--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx/app_role_priority.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx/app_role_priority.xlsx
@@ -71,10 +71,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -156,16 +155,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -201,304 +196,304 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F:F"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="8.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="n">
+      <c r="E2" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="n">
+      <c r="E3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="n">
+      <c r="E4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="5" t="n">
+      <c r="E5" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="n">
+      <c r="E7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="5" t="n">
+      <c r="E8" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2" t="n">
+      <c r="E9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="5" t="n">
+      <c r="E10" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2" t="n">
+      <c r="E11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="5" t="n">
+      <c r="E12" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="F12" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="5" t="n">
+      <c r="E13" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="F13" s="2" t="n">
+      <c r="F13" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2" t="n">
+      <c r="E14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>

--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx/app_role_priority.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx/app_role_priority.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="16">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve">REGISTRATION_OFFICER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE</t>
   </si>
   <si>
     <t xml:space="preserve">REGISTRATION_SUPERVISOR</t>
@@ -196,7 +199,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F:F"/>
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -241,9 +244,8 @@
       <c r="E2" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -257,14 +259,13 @@
         <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -278,14 +279,13 @@
         <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -296,7 +296,7 @@
         <v>10003</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>8</v>
@@ -304,9 +304,8 @@
       <c r="E5" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F5" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -317,17 +316,16 @@
         <v>10003</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="F6" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -338,17 +336,16 @@
         <v>10003</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="E7" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -359,17 +356,16 @@
         <v>10003</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="F8" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F8" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -380,17 +376,16 @@
         <v>10003</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F9" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F9" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -401,17 +396,16 @@
         <v>10003</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="F10" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F10" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -422,17 +416,16 @@
         <v>10003</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F11" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -443,7 +436,7 @@
         <v>10003</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>8</v>
@@ -451,9 +444,8 @@
       <c r="E12" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F12" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F12" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -464,17 +456,16 @@
         <v>10003</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="F13" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F13" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -485,17 +476,16 @@
         <v>10003</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F14" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F14" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
